--- a/website/everyday-update/data/concentration.xlsx
+++ b/website/everyday-update/data/concentration.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1840"/>
+  <dimension ref="A1:B1860"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -15025,7 +15025,167 @@
         <v>43033</v>
       </c>
       <c r="B1840">
-        <v>0.01197114903737228</v>
+        <v>0.01195808725955002</v>
+      </c>
+    </row>
+    <row r="1841" spans="1:2">
+      <c r="A1841" s="2">
+        <v>43034</v>
+      </c>
+      <c r="B1841">
+        <v>0.02052080175106727</v>
+      </c>
+    </row>
+    <row r="1842" spans="1:2">
+      <c r="A1842" s="2">
+        <v>43035</v>
+      </c>
+      <c r="B1842">
+        <v>0.01812218471752827</v>
+      </c>
+    </row>
+    <row r="1843" spans="1:2">
+      <c r="A1843" s="2">
+        <v>43038</v>
+      </c>
+      <c r="B1843">
+        <v>5.619110053258536e-05</v>
+      </c>
+    </row>
+    <row r="1844" spans="1:2">
+      <c r="A1844" s="2">
+        <v>43039</v>
+      </c>
+      <c r="B1844">
+        <v>0.003144731911646939</v>
+      </c>
+    </row>
+    <row r="1845" spans="1:2">
+      <c r="A1845" s="2">
+        <v>43040</v>
+      </c>
+      <c r="B1845">
+        <v>9.930876728365152e-05</v>
+      </c>
+    </row>
+    <row r="1846" spans="1:2">
+      <c r="A1846" s="2">
+        <v>43041</v>
+      </c>
+      <c r="B1846">
+        <v>0.0002954460312106849</v>
+      </c>
+    </row>
+    <row r="1847" spans="1:2">
+      <c r="A1847" s="2">
+        <v>43042</v>
+      </c>
+      <c r="B1847">
+        <v>2.335209856761398e-06</v>
+      </c>
+    </row>
+    <row r="1848" spans="1:2">
+      <c r="A1848" s="2">
+        <v>43045</v>
+      </c>
+      <c r="B1848">
+        <v>0.01559016427987456</v>
+      </c>
+    </row>
+    <row r="1849" spans="1:2">
+      <c r="A1849" s="2">
+        <v>43046</v>
+      </c>
+      <c r="B1849">
+        <v>0.02513595509590636</v>
+      </c>
+    </row>
+    <row r="1850" spans="1:2">
+      <c r="A1850" s="2">
+        <v>43047</v>
+      </c>
+      <c r="B1850">
+        <v>0.0190642759671977</v>
+      </c>
+    </row>
+    <row r="1851" spans="1:2">
+      <c r="A1851" s="2">
+        <v>43048</v>
+      </c>
+      <c r="B1851">
+        <v>0.03374669145727478</v>
+      </c>
+    </row>
+    <row r="1852" spans="1:2">
+      <c r="A1852" s="2">
+        <v>43049</v>
+      </c>
+      <c r="B1852">
+        <v>0.02367940797331155</v>
+      </c>
+    </row>
+    <row r="1853" spans="1:2">
+      <c r="A1853" s="2">
+        <v>43052</v>
+      </c>
+      <c r="B1853">
+        <v>0.01344357375351873</v>
+      </c>
+    </row>
+    <row r="1854" spans="1:2">
+      <c r="A1854" s="2">
+        <v>43053</v>
+      </c>
+      <c r="B1854">
+        <v>0.00230551293411247</v>
+      </c>
+    </row>
+    <row r="1855" spans="1:2">
+      <c r="A1855" s="2">
+        <v>43054</v>
+      </c>
+      <c r="B1855">
+        <v>2.242876563305583e-05</v>
+      </c>
+    </row>
+    <row r="1856" spans="1:2">
+      <c r="A1856" s="2">
+        <v>43055</v>
+      </c>
+      <c r="B1856">
+        <v>0.0004489596586141908</v>
+      </c>
+    </row>
+    <row r="1857" spans="1:2">
+      <c r="A1857" s="2">
+        <v>43056</v>
+      </c>
+      <c r="B1857">
+        <v>0.007164942549278267</v>
+      </c>
+    </row>
+    <row r="1858" spans="1:2">
+      <c r="A1858" s="2">
+        <v>43059</v>
+      </c>
+      <c r="B1858">
+        <v>2.483322038821136e-06</v>
+      </c>
+    </row>
+    <row r="1859" spans="1:2">
+      <c r="A1859" s="2">
+        <v>43060</v>
+      </c>
+      <c r="B1859">
+        <v>0.002067573214967134</v>
+      </c>
+    </row>
+    <row r="1860" spans="1:2">
+      <c r="A1860" s="2">
+        <v>43061</v>
+      </c>
+      <c r="B1860">
+        <v>0.003681243703186658</v>
       </c>
     </row>
   </sheetData>

--- a/website/everyday-update/data/concentration.xlsx
+++ b/website/everyday-update/data/concentration.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1938"/>
+  <dimension ref="A1:B1940"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -15812,6 +15812,22 @@
         <v>0.3797322723900309</v>
       </c>
     </row>
+    <row r="1939" spans="1:2">
+      <c r="A1939" s="2">
+        <v>43090</v>
+      </c>
+      <c r="B1939">
+        <v>0.4211765362343117</v>
+      </c>
+    </row>
+    <row r="1940" spans="1:2">
+      <c r="A1940" s="2">
+        <v>43091</v>
+      </c>
+      <c r="B1940">
+        <v>0.2203406231899363</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/website/everyday-update/data/concentration.xlsx
+++ b/website/everyday-update/data/concentration.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1958"/>
+  <dimension ref="A1:B1987"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -15972,6 +15972,238 @@
         <v>0.03990752022366059</v>
       </c>
     </row>
+    <row r="1959" spans="1:2">
+      <c r="A1959" s="2">
+        <v>43119</v>
+      </c>
+      <c r="B1959">
+        <v>0.04706895203764423</v>
+      </c>
+    </row>
+    <row r="1960" spans="1:2">
+      <c r="A1960" s="2">
+        <v>43122</v>
+      </c>
+      <c r="B1960">
+        <v>0.0887030158446435</v>
+      </c>
+    </row>
+    <row r="1961" spans="1:2">
+      <c r="A1961" s="2">
+        <v>43123</v>
+      </c>
+      <c r="B1961">
+        <v>0.1143313758026336</v>
+      </c>
+    </row>
+    <row r="1962" spans="1:2">
+      <c r="A1962" s="2">
+        <v>43124</v>
+      </c>
+      <c r="B1962">
+        <v>0.1175264559900386</v>
+      </c>
+    </row>
+    <row r="1963" spans="1:2">
+      <c r="A1963" s="2">
+        <v>43125</v>
+      </c>
+      <c r="B1963">
+        <v>0.1354730061966888</v>
+      </c>
+    </row>
+    <row r="1964" spans="1:2">
+      <c r="A1964" s="2">
+        <v>43126</v>
+      </c>
+      <c r="B1964">
+        <v>0.1149273002388606</v>
+      </c>
+    </row>
+    <row r="1965" spans="1:2">
+      <c r="A1965" s="2">
+        <v>43129</v>
+      </c>
+      <c r="B1965">
+        <v>0.06490633555095589</v>
+      </c>
+    </row>
+    <row r="1966" spans="1:2">
+      <c r="A1966" s="2">
+        <v>43130</v>
+      </c>
+      <c r="B1966">
+        <v>0.09909431634589176</v>
+      </c>
+    </row>
+    <row r="1967" spans="1:2">
+      <c r="A1967" s="2">
+        <v>43131</v>
+      </c>
+      <c r="B1967">
+        <v>0.02600086958661477</v>
+      </c>
+    </row>
+    <row r="1968" spans="1:2">
+      <c r="A1968" s="2">
+        <v>43132</v>
+      </c>
+      <c r="B1968">
+        <v>0.002021669907958484</v>
+      </c>
+    </row>
+    <row r="1969" spans="1:2">
+      <c r="A1969" s="2">
+        <v>43133</v>
+      </c>
+      <c r="B1969">
+        <v>0.0004127974590100694</v>
+      </c>
+    </row>
+    <row r="1970" spans="1:2">
+      <c r="A1970" s="2">
+        <v>43136</v>
+      </c>
+      <c r="B1970">
+        <v>0.00056120776488891</v>
+      </c>
+    </row>
+    <row r="1971" spans="1:2">
+      <c r="A1971" s="2">
+        <v>43137</v>
+      </c>
+      <c r="B1971">
+        <v>0.2390215890514913</v>
+      </c>
+    </row>
+    <row r="1972" spans="1:2">
+      <c r="A1972" s="2">
+        <v>43138</v>
+      </c>
+      <c r="B1972">
+        <v>0.6325937454125388</v>
+      </c>
+    </row>
+    <row r="1973" spans="1:2">
+      <c r="A1973" s="2">
+        <v>43139</v>
+      </c>
+      <c r="B1973">
+        <v>0.9352985846143655</v>
+      </c>
+    </row>
+    <row r="1974" spans="1:2">
+      <c r="A1974" s="2">
+        <v>43140</v>
+      </c>
+      <c r="B1974">
+        <v>1.348712655729881</v>
+      </c>
+    </row>
+    <row r="1975" spans="1:2">
+      <c r="A1975" s="2">
+        <v>43143</v>
+      </c>
+      <c r="B1975">
+        <v>1.236792557530753</v>
+      </c>
+    </row>
+    <row r="1976" spans="1:2">
+      <c r="A1976" s="2">
+        <v>43144</v>
+      </c>
+      <c r="B1976">
+        <v>1.165162570640139</v>
+      </c>
+    </row>
+    <row r="1977" spans="1:2">
+      <c r="A1977" s="2">
+        <v>43145</v>
+      </c>
+      <c r="B1977">
+        <v>1.203374948777688</v>
+      </c>
+    </row>
+    <row r="1978" spans="1:2">
+      <c r="A1978" s="2">
+        <v>43153</v>
+      </c>
+      <c r="B1978">
+        <v>0.9894728987641784</v>
+      </c>
+    </row>
+    <row r="1979" spans="1:2">
+      <c r="A1979" s="2">
+        <v>43154</v>
+      </c>
+      <c r="B1979">
+        <v>0.9201945231027642</v>
+      </c>
+    </row>
+    <row r="1980" spans="1:2">
+      <c r="A1980" s="2">
+        <v>43157</v>
+      </c>
+      <c r="B1980">
+        <v>0.3047089451372738</v>
+      </c>
+    </row>
+    <row r="1981" spans="1:2">
+      <c r="A1981" s="2">
+        <v>43158</v>
+      </c>
+      <c r="B1981">
+        <v>0.3764103609458239</v>
+      </c>
+    </row>
+    <row r="1982" spans="1:2">
+      <c r="A1982" s="2">
+        <v>43159</v>
+      </c>
+      <c r="B1982">
+        <v>0.3317762467679314</v>
+      </c>
+    </row>
+    <row r="1983" spans="1:2">
+      <c r="A1983" s="2">
+        <v>43160</v>
+      </c>
+      <c r="B1983">
+        <v>0.2757443035991862</v>
+      </c>
+    </row>
+    <row r="1984" spans="1:2">
+      <c r="A1984" s="2">
+        <v>43161</v>
+      </c>
+      <c r="B1984">
+        <v>0.3039337319346276</v>
+      </c>
+    </row>
+    <row r="1985" spans="1:2">
+      <c r="A1985" s="2">
+        <v>43164</v>
+      </c>
+      <c r="B1985">
+        <v>0.3352495715248058</v>
+      </c>
+    </row>
+    <row r="1986" spans="1:2">
+      <c r="A1986" s="2">
+        <v>43165</v>
+      </c>
+      <c r="B1986">
+        <v>0.3030339129530838</v>
+      </c>
+    </row>
+    <row r="1987" spans="1:2">
+      <c r="A1987" s="2">
+        <v>43166</v>
+      </c>
+      <c r="B1987">
+        <v>0.4182681665324968</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/website/everyday-update/data/concentration.xlsx
+++ b/website/everyday-update/data/concentration.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2003"/>
+  <dimension ref="A1:B2011"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -657,7 +657,7 @@
         <v>40247</v>
       </c>
       <c r="B44">
-        <v>0.03838491401403467</v>
+        <v>0.03838491401403419</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -729,7 +729,7 @@
         <v>40260</v>
       </c>
       <c r="B53">
-        <v>0.05289095899261848</v>
+        <v>0.05289095899261897</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -881,7 +881,7 @@
         <v>40288</v>
       </c>
       <c r="B72">
-        <v>0.01682230404953074</v>
+        <v>0.0168223040495313</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -929,7 +929,7 @@
         <v>40296</v>
       </c>
       <c r="B78">
-        <v>0.1208144961267573</v>
+        <v>0.120814496126758</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1081,7 +1081,7 @@
         <v>40324</v>
       </c>
       <c r="B97">
-        <v>1.057342852403948</v>
+        <v>1.057342852403951</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1881,7 +1881,7 @@
         <v>40479</v>
       </c>
       <c r="B197">
-        <v>0.3481099413055702</v>
+        <v>0.3481099413055717</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -1905,7 +1905,7 @@
         <v>40484</v>
       </c>
       <c r="B200">
-        <v>0.6794345439960772</v>
+        <v>0.6794345439960788</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -2009,7 +2009,7 @@
         <v>40501</v>
       </c>
       <c r="B213">
-        <v>0.0001196618417354757</v>
+        <v>0.0001196618417354569</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2081,7 +2081,7 @@
         <v>40514</v>
       </c>
       <c r="B222">
-        <v>0.09940947551419232</v>
+        <v>0.09940947551419294</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2105,7 +2105,7 @@
         <v>40519</v>
       </c>
       <c r="B225">
-        <v>0.2495459426078407</v>
+        <v>0.2495459426078419</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2209,7 +2209,7 @@
         <v>40536</v>
       </c>
       <c r="B238">
-        <v>0.08466487572708532</v>
+        <v>0.08466487572708649</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -2281,7 +2281,7 @@
         <v>40550</v>
       </c>
       <c r="B247">
-        <v>0.006179107490905201</v>
+        <v>0.006179107490904996</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -2473,7 +2473,7 @@
         <v>40591</v>
       </c>
       <c r="B271">
-        <v>0.2076689647298812</v>
+        <v>0.2076689647298845</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -2481,7 +2481,7 @@
         <v>40592</v>
       </c>
       <c r="B272">
-        <v>0.09187528160723199</v>
+        <v>0.09187528160722942</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -2521,7 +2521,7 @@
         <v>40599</v>
       </c>
       <c r="B277">
-        <v>0.2537489397931488</v>
+        <v>0.2537489397931521</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -2673,7 +2673,7 @@
         <v>40626</v>
       </c>
       <c r="B296">
-        <v>0.04194263407655471</v>
+        <v>0.04194263407655312</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -2721,7 +2721,7 @@
         <v>40634</v>
       </c>
       <c r="B302">
-        <v>0.06562938237239402</v>
+        <v>0.06562938237239284</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -2873,7 +2873,7 @@
         <v>40666</v>
       </c>
       <c r="B321">
-        <v>0.0442660326799782</v>
+        <v>0.04426603267997763</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -2945,7 +2945,7 @@
         <v>40679</v>
       </c>
       <c r="B330">
-        <v>0.5362356659690376</v>
+        <v>0.5362356659690356</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -3073,7 +3073,7 @@
         <v>40702</v>
       </c>
       <c r="B346">
-        <v>0.4514160584344724</v>
+        <v>0.4514160584344741</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -3145,7 +3145,7 @@
         <v>40715</v>
       </c>
       <c r="B355">
-        <v>0.6262383798532444</v>
+        <v>0.6262383798532465</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -5489,7 +5489,7 @@
         <v>41151</v>
       </c>
       <c r="B648">
-        <v>0.06569177002352189</v>
+        <v>0.0656917700235215</v>
       </c>
     </row>
     <row r="649" spans="1:2">
@@ -5497,7 +5497,7 @@
         <v>41152</v>
       </c>
       <c r="B649">
-        <v>0.07511544639027438</v>
+        <v>0.07511544639027395</v>
       </c>
     </row>
     <row r="650" spans="1:2">
@@ -5505,7 +5505,7 @@
         <v>41155</v>
       </c>
       <c r="B650">
-        <v>0.02436267307159242</v>
+        <v>0.0243626730715927</v>
       </c>
     </row>
     <row r="651" spans="1:2">
@@ -5689,7 +5689,7 @@
         <v>41193</v>
       </c>
       <c r="B673">
-        <v>0.2225577281969499</v>
+        <v>0.2225577281969469</v>
       </c>
     </row>
     <row r="674" spans="1:2">
@@ -5705,7 +5705,7 @@
         <v>41197</v>
       </c>
       <c r="B675">
-        <v>0.1193628677684583</v>
+        <v>0.1193628677684609</v>
       </c>
     </row>
     <row r="676" spans="1:2">
@@ -6913,7 +6913,7 @@
         <v>41425</v>
       </c>
       <c r="B826">
-        <v>0.9400622050828187</v>
+        <v>0.9400622050828141</v>
       </c>
     </row>
     <row r="827" spans="1:2">
@@ -6921,7 +6921,7 @@
         <v>41428</v>
       </c>
       <c r="B827">
-        <v>0.6542631357039967</v>
+        <v>0.6542631357040012</v>
       </c>
     </row>
     <row r="828" spans="1:2">
@@ -7113,7 +7113,7 @@
         <v>41465</v>
       </c>
       <c r="B851">
-        <v>0.7877072318377825</v>
+        <v>0.7877072318377797</v>
       </c>
     </row>
     <row r="852" spans="1:2">
@@ -7121,7 +7121,7 @@
         <v>41466</v>
       </c>
       <c r="B852">
-        <v>0.7914251819608822</v>
+        <v>0.7914251819608862</v>
       </c>
     </row>
     <row r="853" spans="1:2">
@@ -7417,7 +7417,7 @@
         <v>41519</v>
       </c>
       <c r="B889">
-        <v>0.5174848801962365</v>
+        <v>0.5174848801962394</v>
       </c>
     </row>
     <row r="890" spans="1:2">
@@ -7617,7 +7617,7 @@
         <v>41563</v>
       </c>
       <c r="B914">
-        <v>0.4685694855195059</v>
+        <v>0.4685694855195024</v>
       </c>
     </row>
     <row r="915" spans="1:2">
@@ -7793,7 +7793,7 @@
         <v>41593</v>
       </c>
       <c r="B936">
-        <v>0.5655867161916244</v>
+        <v>0.5655867161916267</v>
       </c>
     </row>
     <row r="937" spans="1:2">
@@ -8297,7 +8297,7 @@
         <v>41690</v>
       </c>
       <c r="B999">
-        <v>0.7135530555553419</v>
+        <v>0.7135530555553459</v>
       </c>
     </row>
     <row r="1000" spans="1:2">
@@ -8321,7 +8321,7 @@
         <v>41695</v>
       </c>
       <c r="B1002">
-        <v>0.09513112279960981</v>
+        <v>0.09513112279961126</v>
       </c>
     </row>
     <row r="1003" spans="1:2">
@@ -8497,7 +8497,7 @@
         <v>41725</v>
       </c>
       <c r="B1024">
-        <v>0.5039291234014824</v>
+        <v>0.5039291234014867</v>
       </c>
     </row>
     <row r="1025" spans="1:2">
@@ -8521,7 +8521,7 @@
         <v>41730</v>
       </c>
       <c r="B1027">
-        <v>0.01397949653783599</v>
+        <v>0.01397949653783662</v>
       </c>
     </row>
     <row r="1028" spans="1:2">
@@ -8673,7 +8673,7 @@
         <v>41758</v>
       </c>
       <c r="B1046">
-        <v>0.4518908392395921</v>
+        <v>0.4518908392395897</v>
       </c>
     </row>
     <row r="1047" spans="1:2">
@@ -8873,7 +8873,7 @@
         <v>41796</v>
       </c>
       <c r="B1071">
-        <v>0.1130938082281943</v>
+        <v>0.1130938082281914</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
@@ -9105,7 +9105,7 @@
         <v>41837</v>
       </c>
       <c r="B1100">
-        <v>0.3338419548571408</v>
+        <v>0.3338419548571452</v>
       </c>
     </row>
     <row r="1101" spans="1:2">
@@ -9305,7 +9305,7 @@
         <v>41872</v>
       </c>
       <c r="B1125">
-        <v>1.263981511457986</v>
+        <v>1.263981511457982</v>
       </c>
     </row>
     <row r="1126" spans="1:2">
@@ -9617,7 +9617,7 @@
         <v>41935</v>
       </c>
       <c r="B1164">
-        <v>0.01482987583190634</v>
+        <v>0.0148298758319072</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
@@ -9929,7 +9929,7 @@
         <v>41990</v>
       </c>
       <c r="B1203">
-        <v>0.2545095650920352</v>
+        <v>0.2545095650920346</v>
       </c>
     </row>
     <row r="1204" spans="1:2">
@@ -9961,7 +9961,7 @@
         <v>41996</v>
       </c>
       <c r="B1207">
-        <v>0.1232025930022434</v>
+        <v>0.1232025930022437</v>
       </c>
     </row>
     <row r="1208" spans="1:2">
@@ -10017,7 +10017,7 @@
         <v>42009</v>
       </c>
       <c r="B1214">
-        <v>0.0971221663724751</v>
+        <v>0.0971221663724748</v>
       </c>
     </row>
     <row r="1215" spans="1:2">
@@ -10129,7 +10129,7 @@
         <v>42027</v>
       </c>
       <c r="B1228">
-        <v>0.0285021346277104</v>
+        <v>0.02850213462771074</v>
       </c>
     </row>
     <row r="1229" spans="1:2">
@@ -10161,7 +10161,7 @@
         <v>42033</v>
       </c>
       <c r="B1232">
-        <v>0.1610385691873036</v>
+        <v>0.1610385691873026</v>
       </c>
     </row>
     <row r="1233" spans="1:2">
@@ -10329,7 +10329,7 @@
         <v>42069</v>
       </c>
       <c r="B1253">
-        <v>0.09084150556514292</v>
+        <v>0.09084150556514099</v>
       </c>
     </row>
     <row r="1254" spans="1:2">
@@ -10945,7 +10945,7 @@
         <v>42181</v>
       </c>
       <c r="B1330">
-        <v>0.3510756436769545</v>
+        <v>0.3510756436769526</v>
       </c>
     </row>
     <row r="1331" spans="1:2">
@@ -11089,7 +11089,7 @@
         <v>42207</v>
       </c>
       <c r="B1348">
-        <v>2.576313540706567</v>
+        <v>2.576313540706562</v>
       </c>
     </row>
     <row r="1349" spans="1:2">
@@ -11145,7 +11145,7 @@
         <v>42216</v>
       </c>
       <c r="B1355">
-        <v>1.611454166931046</v>
+        <v>1.611454166931049</v>
       </c>
     </row>
     <row r="1356" spans="1:2">
@@ -11281,7 +11281,7 @@
         <v>42241</v>
       </c>
       <c r="B1372">
-        <v>0.8446318037745347</v>
+        <v>0.8446318037745353</v>
       </c>
     </row>
     <row r="1373" spans="1:2">
@@ -11289,7 +11289,7 @@
         <v>42242</v>
       </c>
       <c r="B1373">
-        <v>1.221591718727669</v>
+        <v>1.22159171872767</v>
       </c>
     </row>
     <row r="1374" spans="1:2">
@@ -11441,7 +11441,7 @@
         <v>42271</v>
       </c>
       <c r="B1392">
-        <v>2.898776406755948</v>
+        <v>2.898776406755946</v>
       </c>
     </row>
     <row r="1393" spans="1:2">
@@ -11641,7 +11641,7 @@
         <v>42313</v>
       </c>
       <c r="B1417">
-        <v>1.39364542442838</v>
+        <v>1.393645424428377</v>
       </c>
     </row>
     <row r="1418" spans="1:2">
@@ -11817,7 +11817,7 @@
         <v>42345</v>
       </c>
       <c r="B1439">
-        <v>0.6760960844528429</v>
+        <v>0.6760960844528403</v>
       </c>
     </row>
     <row r="1440" spans="1:2">
@@ -11825,7 +11825,7 @@
         <v>42346</v>
       </c>
       <c r="B1440">
-        <v>0.4506967739269758</v>
+        <v>0.4506967739269778</v>
       </c>
     </row>
     <row r="1441" spans="1:2">
@@ -12017,7 +12017,7 @@
         <v>42381</v>
       </c>
       <c r="B1464">
-        <v>1.898956764743613</v>
+        <v>1.898956764743608</v>
       </c>
     </row>
     <row r="1465" spans="1:2">
@@ -12025,7 +12025,7 @@
         <v>42382</v>
       </c>
       <c r="B1465">
-        <v>2.038407007826347</v>
+        <v>2.038407007826349</v>
       </c>
     </row>
     <row r="1466" spans="1:2">
@@ -12345,7 +12345,7 @@
         <v>42445</v>
       </c>
       <c r="B1505">
-        <v>0.02746960678321208</v>
+        <v>0.02746960678321133</v>
       </c>
     </row>
     <row r="1506" spans="1:2">
@@ -12545,7 +12545,7 @@
         <v>42481</v>
       </c>
       <c r="B1530">
-        <v>1.224308952201128</v>
+        <v>1.224308952201136</v>
       </c>
     </row>
     <row r="1531" spans="1:2">
@@ -13617,7 +13617,7 @@
         <v>42683</v>
       </c>
       <c r="B1664">
-        <v>0.5121873913553198</v>
+        <v>0.5121873913553244</v>
       </c>
     </row>
     <row r="1665" spans="1:2">
@@ -13817,7 +13817,7 @@
         <v>42718</v>
       </c>
       <c r="B1689">
-        <v>0.08145309214166649</v>
+        <v>0.08145309214166813</v>
       </c>
     </row>
     <row r="1690" spans="1:2">
@@ -15193,7 +15193,7 @@
         <v>42975</v>
       </c>
       <c r="B1861">
-        <v>0.334522538922756</v>
+        <v>0.3345225389227598</v>
       </c>
     </row>
     <row r="1862" spans="1:2">
@@ -15393,7 +15393,7 @@
         <v>43017</v>
       </c>
       <c r="B1886">
-        <v>0.1448463270970766</v>
+        <v>0.1448463270970742</v>
       </c>
     </row>
     <row r="1887" spans="1:2">
@@ -15873,7 +15873,7 @@
         <v>43102</v>
       </c>
       <c r="B1946">
-        <v>0.02992095245351291</v>
+        <v>0.02992095245351414</v>
       </c>
     </row>
     <row r="1947" spans="1:2">
@@ -15961,7 +15961,7 @@
         <v>43117</v>
       </c>
       <c r="B1957">
-        <v>0.05090008699216585</v>
+        <v>0.05090008699216669</v>
       </c>
     </row>
     <row r="1958" spans="1:2">
@@ -16073,7 +16073,7 @@
         <v>43137</v>
       </c>
       <c r="B1971">
-        <v>0.2390215890514913</v>
+        <v>0.2390215890514923</v>
       </c>
     </row>
     <row r="1972" spans="1:2">
@@ -16161,7 +16161,7 @@
         <v>43159</v>
       </c>
       <c r="B1982">
-        <v>0.3317762467679314</v>
+        <v>0.3317762467679341</v>
       </c>
     </row>
     <row r="1983" spans="1:2">
@@ -16249,7 +16249,7 @@
         <v>43174</v>
       </c>
       <c r="B1993">
-        <v>0.001030479172135238</v>
+        <v>0.001030479172135158</v>
       </c>
     </row>
     <row r="1994" spans="1:2">
@@ -16330,6 +16330,70 @@
       </c>
       <c r="B2003">
         <v>0.0001488708500360856</v>
+      </c>
+    </row>
+    <row r="2004" spans="1:2">
+      <c r="A2004" s="2">
+        <v>43189</v>
+      </c>
+      <c r="B2004">
+        <v>0.001084117128095751</v>
+      </c>
+    </row>
+    <row r="2005" spans="1:2">
+      <c r="A2005" s="2">
+        <v>43192</v>
+      </c>
+      <c r="B2005">
+        <v>0.01327533541938767</v>
+      </c>
+    </row>
+    <row r="2006" spans="1:2">
+      <c r="A2006" s="2">
+        <v>43193</v>
+      </c>
+      <c r="B2006">
+        <v>0.001718373274059925</v>
+      </c>
+    </row>
+    <row r="2007" spans="1:2">
+      <c r="A2007" s="2">
+        <v>43194</v>
+      </c>
+      <c r="B2007">
+        <v>0.01265725373020231</v>
+      </c>
+    </row>
+    <row r="2008" spans="1:2">
+      <c r="A2008" s="2">
+        <v>43199</v>
+      </c>
+      <c r="B2008">
+        <v>0.07902554064861776</v>
+      </c>
+    </row>
+    <row r="2009" spans="1:2">
+      <c r="A2009" s="2">
+        <v>43200</v>
+      </c>
+      <c r="B2009">
+        <v>0.05158487564549241</v>
+      </c>
+    </row>
+    <row r="2010" spans="1:2">
+      <c r="A2010" s="2">
+        <v>43201</v>
+      </c>
+      <c r="B2010">
+        <v>0.01188951081588934</v>
+      </c>
+    </row>
+    <row r="2011" spans="1:2">
+      <c r="A2011" s="2">
+        <v>43202</v>
+      </c>
+      <c r="B2011">
+        <v>0.04218697523342461</v>
       </c>
     </row>
   </sheetData>
